--- a/REGULAR/ONT/AMPARO, JOY.xlsx
+++ b/REGULAR/ONT/AMPARO, JOY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C3A89-2475-493C-A26E-B9EB60C3BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="152">
   <si>
     <t>PERIOD</t>
   </si>
@@ -549,11 +542,20 @@
   <si>
     <t>UT(0-0-9)</t>
   </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/5,6/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1231,7 +1233,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1248,25 +1250,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1573,34 +1575,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A211" activePane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="F221" sqref="F221"/>
+      <pane ySplit="3696" topLeftCell="A229" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1623,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1663,7 +1665,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1671,7 +1673,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1684,7 +1686,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -1701,7 +1703,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1745,7 +1747,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>120.42299999999999</v>
+        <v>126.67299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1755,12 +1757,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.333</v>
+        <v>206.583</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1780,7 +1782,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -1798,7 +1800,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>39120</v>
       </c>
@@ -1818,7 +1820,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>39295</v>
       </c>
@@ -1838,7 +1840,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>39326</v>
       </c>
@@ -1858,7 +1860,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>39356</v>
       </c>
@@ -1878,7 +1880,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>39387</v>
       </c>
@@ -1898,7 +1900,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>39417</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1938,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>39448</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>39479</v>
       </c>
@@ -1976,7 +1978,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>39508</v>
       </c>
@@ -1996,7 +1998,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>39539</v>
       </c>
@@ -2016,7 +2018,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>39569</v>
       </c>
@@ -2036,7 +2038,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>39600</v>
       </c>
@@ -2060,7 +2062,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>39630</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>39661</v>
       </c>
@@ -2104,7 +2106,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>39692</v>
       </c>
@@ -2124,7 +2126,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>39722</v>
       </c>
@@ -2144,7 +2146,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>39753</v>
       </c>
@@ -2164,7 +2166,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>39783</v>
       </c>
@@ -2188,7 +2190,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>50</v>
       </c>
@@ -2206,7 +2208,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>39814</v>
       </c>
@@ -2226,7 +2228,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>39845</v>
       </c>
@@ -2246,7 +2248,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>39873</v>
       </c>
@@ -2266,7 +2268,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>39904</v>
       </c>
@@ -2286,7 +2288,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>39934</v>
       </c>
@@ -2306,7 +2308,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>39965</v>
       </c>
@@ -2326,7 +2328,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>39995</v>
       </c>
@@ -2346,7 +2348,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>40026</v>
       </c>
@@ -2366,7 +2368,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>40057</v>
       </c>
@@ -2386,7 +2388,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40087</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>40118</v>
       </c>
@@ -2426,7 +2428,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>40148</v>
       </c>
@@ -2450,7 +2452,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>51</v>
       </c>
@@ -2468,7 +2470,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40179</v>
       </c>
@@ -2488,7 +2490,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40210</v>
       </c>
@@ -2508,7 +2510,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>40238</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>40269</v>
       </c>
@@ -2556,7 +2558,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>40299</v>
       </c>
@@ -2580,7 +2582,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40330</v>
       </c>
@@ -2604,7 +2606,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40360</v>
       </c>
@@ -2628,7 +2630,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40391</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>40422</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>40452</v>
       </c>
@@ -2700,7 +2702,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>40483</v>
       </c>
@@ -2724,7 +2726,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>40513</v>
       </c>
@@ -2748,7 +2750,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -2768,7 +2770,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>61</v>
       </c>
@@ -2786,7 +2788,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>40544</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>40575</v>
       </c>
@@ -2834,7 +2836,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40603</v>
       </c>
@@ -2858,7 +2860,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40634</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>65</v>
@@ -2904,7 +2906,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>40664</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>67</v>
@@ -2948,7 +2950,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>40695</v>
       </c>
@@ -2972,7 +2974,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>40725</v>
       </c>
@@ -2992,7 +2994,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>40756</v>
       </c>
@@ -3012,7 +3014,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>40787</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>40817</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>73</v>
@@ -3084,7 +3086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>40848</v>
       </c>
@@ -3104,7 +3106,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>40878</v>
       </c>
@@ -3124,7 +3126,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>76</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>40909</v>
       </c>
@@ -3162,7 +3164,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>40940</v>
       </c>
@@ -3182,7 +3184,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>40969</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>41000</v>
       </c>
@@ -3228,7 +3230,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41030</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>41061</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>41091</v>
       </c>
@@ -3300,7 +3302,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>41122</v>
       </c>
@@ -3320,7 +3322,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41153</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>41183</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>68</v>
@@ -3388,7 +3390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41214</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>41244</v>
       </c>
@@ -3428,7 +3430,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>82</v>
       </c>
@@ -3446,7 +3448,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41275</v>
       </c>
@@ -3466,7 +3468,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41306</v>
       </c>
@@ -3486,7 +3488,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41334</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>41365</v>
       </c>
@@ -3530,7 +3532,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41395</v>
       </c>
@@ -3550,7 +3552,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>41426</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>41553</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>41456</v>
       </c>
@@ -3596,7 +3598,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41487</v>
       </c>
@@ -3616,7 +3618,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>41518</v>
       </c>
@@ -3636,7 +3638,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>41548</v>
       </c>
@@ -3656,7 +3658,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41579</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>41609</v>
       </c>
@@ -3700,7 +3702,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>86</v>
       </c>
@@ -3718,7 +3720,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>41640</v>
       </c>
@@ -3738,7 +3740,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>41671</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>41699</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41730</v>
       </c>
@@ -3804,7 +3806,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41760</v>
       </c>
@@ -3824,7 +3826,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>41791</v>
       </c>
@@ -3844,7 +3846,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41821</v>
       </c>
@@ -3864,7 +3866,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>41852</v>
       </c>
@@ -3884,7 +3886,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>41883</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>41952</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41913</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>41944</v>
       </c>
@@ -3952,7 +3954,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41974</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>90</v>
       </c>
@@ -3992,7 +3994,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42005</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>42036</v>
       </c>
@@ -4038,7 +4040,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42064</v>
       </c>
@@ -4058,7 +4060,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>42095</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>42125</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>42156</v>
       </c>
@@ -4130,7 +4132,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>42186</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>42217</v>
       </c>
@@ -4176,7 +4178,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>42248</v>
       </c>
@@ -4196,7 +4198,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42278</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>42309</v>
       </c>
@@ -4242,7 +4244,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42339</v>
       </c>
@@ -4262,7 +4264,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>98</v>
       </c>
@@ -4280,7 +4282,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42370</v>
       </c>
@@ -4300,7 +4302,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>42401</v>
       </c>
@@ -4320,7 +4322,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
         <v>42430</v>
       </c>
@@ -4340,7 +4342,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42461</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42491</v>
       </c>
@@ -4380,7 +4382,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42522</v>
       </c>
@@ -4400,7 +4402,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42552</v>
       </c>
@@ -4420,7 +4422,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42583</v>
       </c>
@@ -4440,7 +4442,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42614</v>
       </c>
@@ -4460,7 +4462,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42644</v>
       </c>
@@ -4480,7 +4482,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42675</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -4526,7 +4528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42705</v>
       </c>
@@ -4550,7 +4552,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="51" t="s">
         <v>101</v>
       </c>
@@ -4568,7 +4570,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>42736</v>
       </c>
@@ -4588,7 +4590,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42767</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42795</v>
       </c>
@@ -4634,7 +4636,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>42826</v>
       </c>
@@ -4658,7 +4660,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42856</v>
       </c>
@@ -4682,7 +4684,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
         <v>42887</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42917</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>133</v>
@@ -4752,7 +4754,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>106</v>
@@ -4774,7 +4776,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
         <v>42948</v>
       </c>
@@ -4798,7 +4800,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42979</v>
       </c>
@@ -4818,7 +4820,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>43009</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43040</v>
       </c>
@@ -4864,7 +4866,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>43070</v>
       </c>
@@ -4884,7 +4886,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>111</v>
       </c>
@@ -4902,7 +4904,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>43101</v>
       </c>
@@ -4922,7 +4924,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>43132</v>
       </c>
@@ -4942,7 +4944,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>43160</v>
       </c>
@@ -4962,7 +4964,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
         <v>43191</v>
       </c>
@@ -4982,7 +4984,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43221</v>
       </c>
@@ -5006,7 +5008,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43252</v>
       </c>
@@ -5030,7 +5032,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43282</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43313</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
         <v>43344</v>
       </c>
@@ -5100,7 +5102,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="15"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43374</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>115</v>
@@ -5146,7 +5148,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>43405</v>
       </c>
@@ -5170,7 +5172,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>43435</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>114</v>
@@ -5216,7 +5218,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="51" t="s">
         <v>118</v>
       </c>
@@ -5234,7 +5236,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>43466</v>
       </c>
@@ -5254,7 +5256,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>43497</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>43525</v>
       </c>
@@ -5294,7 +5296,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>43556</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>43586</v>
       </c>
@@ -5342,7 +5344,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <v>43617</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>121</v>
@@ -5388,7 +5390,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>43647</v>
       </c>
@@ -5408,7 +5410,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43678</v>
       </c>
@@ -5428,7 +5430,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43709</v>
       </c>
@@ -5448,7 +5450,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43739</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>43770</v>
       </c>
@@ -5494,7 +5496,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>43800</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="52" t="s">
         <v>125</v>
       </c>
@@ -5538,7 +5540,7 @@
       <c r="J185" s="12"/>
       <c r="K185" s="15"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>43831</v>
       </c>
@@ -5558,7 +5560,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>43862</v>
       </c>
@@ -5578,7 +5580,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>43891</v>
       </c>
@@ -5598,7 +5600,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>43922</v>
       </c>
@@ -5618,7 +5620,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>43952</v>
       </c>
@@ -5638,7 +5640,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43983</v>
       </c>
@@ -5658,7 +5660,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>44013</v>
       </c>
@@ -5678,7 +5680,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>44044</v>
       </c>
@@ -5698,7 +5700,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41">
         <v>44075</v>
       </c>
@@ -5718,7 +5720,7 @@
       <c r="J194" s="12"/>
       <c r="K194" s="15"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41">
         <v>44105</v>
       </c>
@@ -5738,7 +5740,7 @@
       <c r="J195" s="12"/>
       <c r="K195" s="15"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>44136</v>
       </c>
@@ -5758,7 +5760,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>44166</v>
       </c>
@@ -5782,7 +5784,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23" t="s">
         <v>126</v>
       </c>
@@ -5800,7 +5802,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44197</v>
       </c>
@@ -5820,7 +5822,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44228</v>
       </c>
@@ -5840,7 +5842,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>44256</v>
       </c>
@@ -5860,7 +5862,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44287</v>
       </c>
@@ -5880,7 +5882,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44317</v>
       </c>
@@ -5900,7 +5902,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41">
         <v>44348</v>
       </c>
@@ -5920,7 +5922,7 @@
       <c r="J204" s="12"/>
       <c r="K204" s="15"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>44378</v>
       </c>
@@ -5940,7 +5942,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44409</v>
       </c>
@@ -5960,7 +5962,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>44440</v>
       </c>
@@ -5980,7 +5982,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44470</v>
       </c>
@@ -6000,7 +6002,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44501</v>
       </c>
@@ -6020,7 +6022,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>44531</v>
       </c>
@@ -6044,7 +6046,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23" t="s">
         <v>127</v>
       </c>
@@ -6062,7 +6064,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41">
         <v>44562</v>
       </c>
@@ -6082,7 +6084,7 @@
       <c r="J212" s="12"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44593</v>
       </c>
@@ -6102,7 +6104,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>44621</v>
       </c>
@@ -6126,7 +6128,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>44652</v>
       </c>
@@ -6150,7 +6152,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>44682</v>
       </c>
@@ -6174,7 +6176,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44713</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>105</v>
@@ -6220,7 +6222,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>44743</v>
@@ -6245,7 +6247,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A225" si="0">EDATE(A219,1)</f>
         <v>44774</v>
@@ -6272,7 +6274,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>145</v>
@@ -6292,7 +6294,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>44805</v>
@@ -6319,7 +6321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>144</v>
@@ -6339,7 +6341,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>44835</v>
@@ -6364,7 +6366,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -6391,7 +6393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>142</v>
@@ -6411,7 +6413,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A225,1)</f>
         <v>44896</v>
@@ -6436,7 +6438,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>139</v>
@@ -6458,7 +6460,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>141</v>
@@ -6478,7 +6480,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="49"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="48" t="s">
         <v>138</v>
       </c>
@@ -6496,9 +6498,9 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -6516,9 +6518,9 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13">
@@ -6536,155 +6538,207 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40">
+        <v>45016</v>
+      </c>
       <c r="B233" s="20"/>
-      <c r="C233" s="13"/>
+      <c r="C233" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D233" s="39"/>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G233" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40">
+        <v>45046</v>
+      </c>
       <c r="B234" s="20"/>
-      <c r="C234" s="13"/>
+      <c r="C234" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D234" s="39"/>
       <c r="E234" s="9"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G234" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H234" s="39"/>
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="40">
+        <v>45077</v>
+      </c>
       <c r="B235" s="20"/>
-      <c r="C235" s="13"/>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40">
+        <v>45107</v>
+      </c>
       <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D236" s="39"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40">
+        <v>45138</v>
+      </c>
       <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G237" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40">
+        <v>45169</v>
+      </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G238" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40">
+        <v>45199</v>
+      </c>
       <c r="B239" s="20"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="39"/>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D240" s="39">
+        <v>3</v>
+      </c>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="40"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
+      <c r="K240" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B241" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D241" s="39"/>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G241" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="20"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
-      <c r="B242" s="20"/>
+      <c r="K241" s="49">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B242" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C242" s="13"/>
-      <c r="D242" s="39"/>
+      <c r="D242" s="39">
+        <v>2</v>
+      </c>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
       <c r="G242" s="13" t="str">
@@ -6694,10 +6748,14 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
+      <c r="K242" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40">
+        <v>45322</v>
+      </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
       <c r="D243" s="39"/>
@@ -6712,8 +6770,10 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40">
+        <v>45351</v>
+      </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
@@ -6728,8 +6788,10 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40">
+        <v>45382</v>
+      </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
@@ -6744,7 +6806,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -6760,7 +6822,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -6776,7 +6838,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -6792,7 +6854,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -6808,7 +6870,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -6824,7 +6886,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -6840,7 +6902,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -6856,7 +6918,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -6872,7 +6934,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -6888,7 +6950,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41"/>
       <c r="B255" s="15"/>
       <c r="C255" s="42"/>
@@ -6919,10 +6981,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6945,28 +7007,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -6979,7 +7041,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7008,7 +7070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -7032,17 +7094,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7063,7 +7125,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7090,7 +7152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7116,7 +7178,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7142,7 +7204,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7168,7 +7230,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7194,7 +7256,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7220,7 +7282,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7246,7 +7308,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7272,7 +7334,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7292,7 +7354,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7312,7 +7374,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7332,7 +7394,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7353,7 +7415,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7374,7 +7436,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7395,7 +7457,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7416,7 +7478,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7437,7 +7499,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7458,7 +7520,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7479,7 +7541,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7500,7 +7562,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7521,7 +7583,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7542,7 +7604,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7563,7 +7625,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7584,7 +7646,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7605,7 +7667,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7626,7 +7688,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7647,7 +7709,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7668,7 +7730,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7689,7 +7751,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7710,7 +7772,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7731,7 +7793,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7752,7 +7814,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7761,7 +7823,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7770,7 +7832,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7779,7 +7841,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7788,7 +7850,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7797,7 +7859,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7806,7 +7868,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7815,7 +7877,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7824,7 +7886,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7833,7 +7895,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7842,7 +7904,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7851,7 +7913,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7860,7 +7922,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7869,7 +7931,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7878,7 +7940,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7887,7 +7949,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7896,7 +7958,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7905,7 +7967,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7914,7 +7976,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7923,7 +7985,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7932,7 +7994,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7941,7 +8003,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7950,7 +8012,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7959,7 +8021,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7968,7 +8030,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7977,7 +8039,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7986,7 +8048,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7995,7 +8057,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8004,7 +8066,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8013,7 +8075,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
